--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S3/S3_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S3/S3_lossmod.xlsx
@@ -14,258 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.40686881188118</t>
-  </si>
-  <si>
-    <t>92.02220582635186</t>
-  </si>
-  <si>
-    <t>93.41726961157653</t>
-  </si>
-  <si>
-    <t>94.38308300134747</t>
-  </si>
-  <si>
-    <t>95.66195870960722</t>
-  </si>
-  <si>
-    <t>96.85190033426419</t>
-  </si>
-  <si>
-    <t>98.14980656719517</t>
-  </si>
-  <si>
-    <t>99.23114787440282</t>
-  </si>
-  <si>
-    <t>100.52108125476009</t>
-  </si>
-  <si>
-    <t>101.7435976770754</t>
-  </si>
-  <si>
-    <t>103.3295649276466</t>
-  </si>
-  <si>
-    <t>104.94490194211728</t>
-  </si>
-  <si>
-    <t>106.56023895658797</t>
-  </si>
-  <si>
-    <t>108.17557597105863</t>
-  </si>
-  <si>
-    <t>109.76643818227976</t>
-  </si>
-  <si>
-    <t>111.40625</t>
-  </si>
-  <si>
-    <t>112.87473819497333</t>
-  </si>
-  <si>
-    <t>114.3432263899467</t>
-  </si>
-  <si>
-    <t>115.73829017517136</t>
-  </si>
-  <si>
-    <t>116.49700907590758</t>
-  </si>
-  <si>
-    <t>117.79417364813403</t>
-  </si>
-  <si>
-    <t>119.33608625285606</t>
-  </si>
-  <si>
-    <t>120.8045744478294</t>
-  </si>
-  <si>
-    <t>122.27306264280274</t>
-  </si>
-  <si>
-    <t>123.88839965727342</t>
-  </si>
-  <si>
-    <t>125.5037366717441</t>
-  </si>
-  <si>
-    <t>127.11907368621478</t>
-  </si>
-  <si>
-    <t>128.73441070068546</t>
-  </si>
-  <si>
-    <t>130.34974771515613</t>
-  </si>
-  <si>
-    <t>131.96508472962682</t>
-  </si>
-  <si>
-    <t>133.5804217440975</t>
-  </si>
-  <si>
-    <t>135.19575875856816</t>
-  </si>
-  <si>
-    <t>136.81109577303886</t>
-  </si>
-  <si>
-    <t>138.42643278750953</t>
-  </si>
-  <si>
-    <t>140.0417698019802</t>
-  </si>
-  <si>
-    <t>141.6571068164509</t>
-  </si>
-  <si>
-    <t>143.27244383092156</t>
-  </si>
-  <si>
-    <t>144.88778084539223</t>
-  </si>
-  <si>
-    <t>146.50311785986293</t>
-  </si>
-  <si>
-    <t>148.1184548743336</t>
-  </si>
-  <si>
-    <t>149.07297220106625</t>
-  </si>
-  <si>
-    <t>315338.57548415917</t>
-  </si>
-  <si>
-    <t>369899.636197602</t>
-  </si>
-  <si>
-    <t>451348.40237511153</t>
-  </si>
-  <si>
-    <t>569818.6601235281</t>
-  </si>
-  <si>
-    <t>713489.2242243934</t>
-  </si>
-  <si>
-    <t>898062.2569559511</t>
-  </si>
-  <si>
-    <t>1164350.1817245919</t>
-  </si>
-  <si>
-    <t>1437987.1634006929</t>
-  </si>
-  <si>
-    <t>1771012.2322967756</t>
-  </si>
-  <si>
-    <t>2167429.001197079</t>
-  </si>
-  <si>
-    <t>2596473.481295039</t>
-  </si>
-  <si>
-    <t>2712643.2129196236</t>
-  </si>
-  <si>
-    <t>2649287.4931263984</t>
-  </si>
-  <si>
-    <t>2383999.6437184378</t>
-  </si>
-  <si>
-    <t>2005568.1198401472</t>
-  </si>
-  <si>
-    <t>1651697.8903249493</t>
-  </si>
-  <si>
-    <t>1327489.7641010764</t>
-  </si>
-  <si>
-    <t>1108708.398125155</t>
-  </si>
-  <si>
-    <t>898054.0893037899</t>
-  </si>
-  <si>
-    <t>756301.4363220001</t>
-  </si>
-  <si>
-    <t>637067.4230393567</t>
-  </si>
-  <si>
-    <t>518794.25873733213</t>
-  </si>
-  <si>
-    <t>445877.60031587764</t>
-  </si>
-  <si>
-    <t>359512.67604007496</t>
-  </si>
-  <si>
-    <t>296900.7616755889</t>
-  </si>
-  <si>
-    <t>258711.54891790383</t>
-  </si>
-  <si>
-    <t>225950.31316581575</t>
-  </si>
-  <si>
-    <t>198890.19431185402</t>
-  </si>
-  <si>
-    <t>177161.88846798195</t>
-  </si>
-  <si>
-    <t>159644.816453254</t>
-  </si>
-  <si>
-    <t>146880.18999855145</t>
-  </si>
-  <si>
-    <t>130756.21163360501</t>
-  </si>
-  <si>
-    <t>121391.89094643203</t>
-  </si>
-  <si>
-    <t>114849.40700687046</t>
-  </si>
-  <si>
-    <t>107357.89454302509</t>
-  </si>
-  <si>
-    <t>101372.98693344025</t>
-  </si>
-  <si>
-    <t>95523.03490192111</t>
-  </si>
-  <si>
-    <t>89943.8968714656</t>
-  </si>
-  <si>
-    <t>86110.15947830188</t>
-  </si>
-  <si>
-    <t>80505.22690278185</t>
-  </si>
-  <si>
-    <t>81417.68115847227</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -638,331 +392,331 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
+      <c r="A2">
+        <v>90.40686881188118</v>
+      </c>
+      <c r="B2">
+        <v>315338.5754841592</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
+      <c r="A3">
+        <v>92.02220582635186</v>
+      </c>
+      <c r="B3">
+        <v>369899.636197602</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
+      <c r="A4">
+        <v>93.41726961157653</v>
+      </c>
+      <c r="B4">
+        <v>451348.4023751115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
+      <c r="A5">
+        <v>94.38308300134747</v>
+      </c>
+      <c r="B5">
+        <v>569818.6601235281</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
+      <c r="A6">
+        <v>95.66195870960722</v>
+      </c>
+      <c r="B6">
+        <v>713489.2242243934</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
+      <c r="A7">
+        <v>96.85190033426419</v>
+      </c>
+      <c r="B7">
+        <v>898062.2569559511</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
+      <c r="A8">
+        <v>98.14980656719517</v>
+      </c>
+      <c r="B8">
+        <v>1164350.181724592</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
+      <c r="A9">
+        <v>99.23114787440282</v>
+      </c>
+      <c r="B9">
+        <v>1437987.163400693</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
+      <c r="A10">
+        <v>100.5210812547601</v>
+      </c>
+      <c r="B10">
+        <v>1771012.232296776</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
+      <c r="A11">
+        <v>101.7435976770754</v>
+      </c>
+      <c r="B11">
+        <v>2167429.001197079</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
+      <c r="A12">
+        <v>103.3295649276466</v>
+      </c>
+      <c r="B12">
+        <v>2596473.481295039</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
+      <c r="A13">
+        <v>104.9449019421173</v>
+      </c>
+      <c r="B13">
+        <v>2712643.212919624</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
+      <c r="A14">
+        <v>106.560238956588</v>
+      </c>
+      <c r="B14">
+        <v>2649287.493126398</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
+      <c r="A15">
+        <v>108.1755759710586</v>
+      </c>
+      <c r="B15">
+        <v>2383999.643718438</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
+      <c r="A16">
+        <v>109.7664381822798</v>
+      </c>
+      <c r="B16">
+        <v>2005568.119840147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
+      <c r="A17">
+        <v>111.40625</v>
+      </c>
+      <c r="B17">
+        <v>1651697.890324949</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
+      <c r="A18">
+        <v>112.8747381949733</v>
+      </c>
+      <c r="B18">
+        <v>1327489.764101076</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+      <c r="A19">
+        <v>114.3432263899467</v>
+      </c>
+      <c r="B19">
+        <v>1108708.398125155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+      <c r="A20">
+        <v>115.7382901751714</v>
+      </c>
+      <c r="B20">
+        <v>898054.0893037899</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
+      <c r="A21">
+        <v>116.4970090759076</v>
+      </c>
+      <c r="B21">
+        <v>756301.4363220001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
+      <c r="A22">
+        <v>117.794173648134</v>
+      </c>
+      <c r="B22">
+        <v>637067.4230393567</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
+      <c r="A23">
+        <v>119.3360862528561</v>
+      </c>
+      <c r="B23">
+        <v>518794.2587373321</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
+      <c r="A24">
+        <v>120.8045744478294</v>
+      </c>
+      <c r="B24">
+        <v>445877.6003158776</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
+      <c r="A25">
+        <v>122.2730626428027</v>
+      </c>
+      <c r="B25">
+        <v>359512.676040075</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
+      <c r="A26">
+        <v>123.8883996572734</v>
+      </c>
+      <c r="B26">
+        <v>296900.7616755889</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
+      <c r="A27">
+        <v>125.5037366717441</v>
+      </c>
+      <c r="B27">
+        <v>258711.5489179038</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
+      <c r="A28">
+        <v>127.1190736862148</v>
+      </c>
+      <c r="B28">
+        <v>225950.3131658158</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
+      <c r="A29">
+        <v>128.7344107006855</v>
+      </c>
+      <c r="B29">
+        <v>198890.194311854</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
+      <c r="A30">
+        <v>130.3497477151561</v>
+      </c>
+      <c r="B30">
+        <v>177161.8884679819</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
+      <c r="A31">
+        <v>131.9650847296268</v>
+      </c>
+      <c r="B31">
+        <v>159644.816453254</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
+      <c r="A32">
+        <v>133.5804217440975</v>
+      </c>
+      <c r="B32">
+        <v>146880.1899985514</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
+      <c r="A33">
+        <v>135.1957587585682</v>
+      </c>
+      <c r="B33">
+        <v>130756.211633605</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
+      <c r="A34">
+        <v>136.8110957730389</v>
+      </c>
+      <c r="B34">
+        <v>121391.890946432</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
+      <c r="A35">
+        <v>138.4264327875095</v>
+      </c>
+      <c r="B35">
+        <v>114849.4070068705</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
+      <c r="A36">
+        <v>140.0417698019802</v>
+      </c>
+      <c r="B36">
+        <v>107357.8945430251</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
+      <c r="A37">
+        <v>141.6571068164509</v>
+      </c>
+      <c r="B37">
+        <v>101372.9869334402</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
+      <c r="A38">
+        <v>143.2724438309216</v>
+      </c>
+      <c r="B38">
+        <v>95523.03490192111</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
+      <c r="A39">
+        <v>144.8877808453922</v>
+      </c>
+      <c r="B39">
+        <v>89943.89687146559</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
+      <c r="A40">
+        <v>146.5031178598629</v>
+      </c>
+      <c r="B40">
+        <v>86110.15947830188</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
+      <c r="A41">
+        <v>148.1184548743336</v>
+      </c>
+      <c r="B41">
+        <v>80505.22690278185</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
+      <c r="A42">
+        <v>149.0729722010662</v>
+      </c>
+      <c r="B42">
+        <v>81417.68115847227</v>
       </c>
     </row>
   </sheetData>
